--- a/stores/Diccionario de variables.xlsx
+++ b/stores/Diccionario de variables.xlsx
@@ -8,30 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/af_diaz27_uniandes_edu_co/Documents/Maestría en Economía Aplicada/Big Data y Machine Learning/Taller 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="489" documentId="8_{B3BAE68F-C3B3-4D0C-8927-44A6A46D73DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{667D5557-2E65-4922-8508-57D130AD19E9}"/>
+  <xr:revisionPtr revIDLastSave="522" documentId="8_{B3BAE68F-C3B3-4D0C-8927-44A6A46D73DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51C3636F-EB8D-41A3-9164-BAD0E73D269C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="766" firstSheet="1" activeTab="1" xr2:uid="{9746C94E-B379-42DB-9985-B4ADFAF467BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="766" firstSheet="1" activeTab="3" xr2:uid="{9746C94E-B379-42DB-9985-B4ADFAF467BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja11" sheetId="15" state="hidden" r:id="rId1"/>
     <sheet name="Hogar" sheetId="1" r:id="rId2"/>
     <sheet name="Individuo" sheetId="3" r:id="rId3"/>
-    <sheet name="VariablesIndTrain" sheetId="9" state="hidden" r:id="rId4"/>
-    <sheet name="VariablesIndTest" sheetId="10" state="hidden" r:id="rId5"/>
-    <sheet name="RenameIndTrain" sheetId="12" state="hidden" r:id="rId6"/>
-    <sheet name="RenameIndTest" sheetId="14" state="hidden" r:id="rId7"/>
-    <sheet name="VariablesHogarTrain" sheetId="4" state="hidden" r:id="rId8"/>
-    <sheet name="VariablesHogarTest" sheetId="6" state="hidden" r:id="rId9"/>
-    <sheet name="RenameHogarTrain" sheetId="7" state="hidden" r:id="rId10"/>
-    <sheet name="RenameHogarTest" sheetId="8" state="hidden" r:id="rId11"/>
+    <sheet name="Propuesta de variables nuevas" sheetId="16" r:id="rId4"/>
+    <sheet name="VariablesIndTrain" sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="VariablesIndTest" sheetId="10" state="hidden" r:id="rId6"/>
+    <sheet name="RenameIndTrain" sheetId="12" state="hidden" r:id="rId7"/>
+    <sheet name="RenameIndTest" sheetId="14" state="hidden" r:id="rId8"/>
+    <sheet name="VariablesHogarTrain" sheetId="4" state="hidden" r:id="rId9"/>
+    <sheet name="VariablesHogarTest" sheetId="6" state="hidden" r:id="rId10"/>
+    <sheet name="RenameHogarTrain" sheetId="7" state="hidden" r:id="rId11"/>
+    <sheet name="RenameHogarTest" sheetId="8" state="hidden" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hogar!$A$1:$G$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Individuo!$A$1:$I$137</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">RenameHogarTest!$A$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">RenameHogarTrain!$A$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">RenameIndTest!$A$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">RenameIndTrain!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">RenameHogarTest!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">RenameHogarTrain!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">RenameIndTest!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">RenameIndTrain!$A$1:$C$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="621">
   <si>
     <t>id</t>
   </si>
@@ -1979,6 +1980,54 @@
   </si>
   <si>
     <t>'Sexo', 'JefeHogar', 'FormalSalud', 'SeguridadSocial', 'maxEducLevel', 'relab', 'SubsAlimen', 'SubsTrans', 'SubsFamil', 'SubsEducativo', 'Viaticos', 'Bonificaciones', 'FormalPension', 'MasHoras', 'PagosExtraPensArri', 'Ayuda', 'GanancFinan', 'EdadTrabajo', 'Ocu', 'Desocu', 'Inact'</t>
+  </si>
+  <si>
+    <t>¿Es la jefe de hogar mujer?</t>
+  </si>
+  <si>
+    <t>Edad de la jefe de hogar</t>
+  </si>
+  <si>
+    <t>Educación de la jefe de hogar</t>
+  </si>
+  <si>
+    <t>relab de la jefe de hogar</t>
+  </si>
+  <si>
+    <t>porcentaje de los que trabajan reciben subsidios</t>
+  </si>
+  <si>
+    <t>porcentaje de los que trabajan reciben bonificaciones y viáticos</t>
+  </si>
+  <si>
+    <t>Porcentaje de los que tienen una educación universitaria</t>
+  </si>
+  <si>
+    <t>Porcentaje de los que trabajan cotizan en salud</t>
+  </si>
+  <si>
+    <t>Porcentaje de los que trabajan cotizan en pensión</t>
+  </si>
+  <si>
+    <t>Al menos uno recibe PagosExtraPensArri</t>
+  </si>
+  <si>
+    <t>porcentaje de los que trabajan reciben Ayuda</t>
+  </si>
+  <si>
+    <t>porcentaje de los que trabajan reciben GanancFinan</t>
+  </si>
+  <si>
+    <t>Porcentaje de Edad Trabajo</t>
+  </si>
+  <si>
+    <t>Porcentaje de Ocu cuando Edad Trabajo = 1</t>
+  </si>
+  <si>
+    <t>Porcentaje de Desocu cuando Edad Trabajo = 1</t>
+  </si>
+  <si>
+    <t>Porcentaje de Inact cuando Edad Trabajo = 1</t>
   </si>
 </sst>
 </file>
@@ -2065,7 +2114,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>982980</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2127,8 +2176,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>622935</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2189,7 +2238,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>622935</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2833,6 +2882,203 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3A793F-4067-4F02-AC6E-92BEC6450CC0}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="135" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="str">
+        <f>+"'"&amp;A2&amp;"'"</f>
+        <v>'id'</v>
+      </c>
+      <c r="C2" t="str">
+        <f>+B2</f>
+        <v>'id'</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B14" si="0">+"'"&amp;A3&amp;"'"</f>
+        <v>'Clase'</v>
+      </c>
+      <c r="C3" t="str">
+        <f>+C2&amp;", "&amp;B3</f>
+        <v>'id', 'Clase'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>'Dominio'</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C14" si="1">+C3&amp;", "&amp;B4</f>
+        <v>'id', 'Clase', 'Dominio'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>'P5000'</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>'id', 'Clase', 'Dominio', 'P5000'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>'P5010'</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>'P5090'</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010', 'P5090'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>'P5100'</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010', 'P5090', 'P5100'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>'P5130'</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010', 'P5090', 'P5100', 'P5130'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>'P5140'</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010', 'P5090', 'P5100', 'P5130', 'P5140'</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>'Nper'</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010', 'P5090', 'P5100', 'P5130', 'P5140', 'Nper'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>'Npersug'</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010', 'P5090', 'P5100', 'P5130', 'P5140', 'Nper', 'Npersug'</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>'Li'</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010', 'P5090', 'P5100', 'P5130', 'P5140', 'Nper', 'Npersug', 'Li'</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>'Lp'</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010', 'P5090', 'P5100', 'P5130', 'P5140', 'Nper', 'Npersug', 'Li', 'Lp'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D58C747-4A1F-47B8-BAE9-F1FABE2D4B92}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2964,7 +3210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C552F82-AAFD-4FD5-99F6-DF47FD6A8B74}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -3100,7 +3346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF217B8-2030-4600-B584-F55ACA93E4FD}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
@@ -3674,10 +3920,10 @@
   <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E140" sqref="E140"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3722,7 +3968,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3869,7 +4115,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>214</v>
       </c>
@@ -3898,7 +4144,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>216</v>
       </c>
@@ -3927,7 +4173,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>219</v>
       </c>
@@ -3956,7 +4202,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>222</v>
       </c>
@@ -3985,7 +4231,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>225</v>
       </c>
@@ -4014,7 +4260,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>228</v>
       </c>
@@ -4147,7 +4393,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>240</v>
       </c>
@@ -4436,7 +4682,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -4517,7 +4763,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>280</v>
       </c>
@@ -4598,7 +4844,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>288</v>
       </c>
@@ -4679,7 +4925,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>296</v>
       </c>
@@ -5124,7 +5370,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>344</v>
       </c>
@@ -5179,7 +5425,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>349</v>
       </c>
@@ -5312,7 +5558,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>363</v>
       </c>
@@ -5341,7 +5587,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>366</v>
       </c>
@@ -5370,7 +5616,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>369</v>
       </c>
@@ -5503,7 +5749,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>383</v>
       </c>
@@ -5844,7 +6090,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>421</v>
       </c>
@@ -6159,7 +6405,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>454</v>
       </c>
@@ -6214,7 +6460,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>459</v>
       </c>
@@ -6373,7 +6619,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>474</v>
       </c>
@@ -6402,7 +6648,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>477</v>
       </c>
@@ -6431,7 +6677,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>480</v>
       </c>
@@ -6460,7 +6706,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>483</v>
       </c>
@@ -7326,11 +7572,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I137" xr:uid="{003C75AC-219E-4BA0-819A-3C6A1AE25886}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Train"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="Sí"/>
@@ -7343,6 +7584,101 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECCE2F0-11B8-451F-9201-EF8EBCC58C32}">
+  <dimension ref="B2:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>620</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD84958D-150B-4576-A773-2484EB5E7AF0}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -7708,7 +8044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBE7710-6004-4F50-A78C-446FFA7D8F40}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -8061,7 +8397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C530E332-939C-416F-BC41-7B3FB0A83185}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -8497,7 +8833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE11CFE-9C41-48FE-9CF8-53D4E69479EC}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -8917,7 +9253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AE955D-ABF5-447B-9CD1-C698657EB110}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -9177,201 +9513,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3A793F-4067-4F02-AC6E-92BEC6450CC0}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="135" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="str">
-        <f>+"'"&amp;A2&amp;"'"</f>
-        <v>'id'</v>
-      </c>
-      <c r="C2" t="str">
-        <f>+B2</f>
-        <v>'id'</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B14" si="0">+"'"&amp;A3&amp;"'"</f>
-        <v>'Clase'</v>
-      </c>
-      <c r="C3" t="str">
-        <f>+C2&amp;", "&amp;B3</f>
-        <v>'id', 'Clase'</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>'Dominio'</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4:C14" si="1">+C3&amp;", "&amp;B4</f>
-        <v>'id', 'Clase', 'Dominio'</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>'P5000'</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="1"/>
-        <v>'id', 'Clase', 'Dominio', 'P5000'</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>'P5010'</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010'</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>'P5090'</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010', 'P5090'</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>'P5100'</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010', 'P5090', 'P5100'</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>'P5130'</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010', 'P5090', 'P5100', 'P5130'</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>'P5140'</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010', 'P5090', 'P5100', 'P5130', 'P5140'</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>'Nper'</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010', 'P5090', 'P5100', 'P5130', 'P5140', 'Nper'</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>'Npersug'</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010', 'P5090', 'P5100', 'P5130', 'P5140', 'Nper', 'Npersug'</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>'Li'</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010', 'P5090', 'P5100', 'P5130', 'P5140', 'Nper', 'Npersug', 'Li'</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>'Lp'</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>'id', 'Clase', 'Dominio', 'P5000', 'P5010', 'P5090', 'P5100', 'P5130', 'P5140', 'Nper', 'Npersug', 'Li', 'Lp'</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>599</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/stores/Diccionario de variables.xlsx
+++ b/stores/Diccionario de variables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/af_diaz27_uniandes_edu_co/Documents/Maestría en Economía Aplicada/Big Data y Machine Learning/Taller 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/af_diaz27_uniandes_edu_co/Documents/Maestría en Economía Aplicada/Big Data y Machine Learning/Repositorios-GitHub/Taller-3/stores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="522" documentId="8_{B3BAE68F-C3B3-4D0C-8927-44A6A46D73DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51C3636F-EB8D-41A3-9164-BAD0E73D269C}"/>
+  <xr:revisionPtr revIDLastSave="529" documentId="8_{B3BAE68F-C3B3-4D0C-8927-44A6A46D73DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47B5C2E6-B894-4C66-9618-1A4341A1EEF4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="766" firstSheet="1" activeTab="3" xr2:uid="{9746C94E-B379-42DB-9985-B4ADFAF467BC}"/>
   </bookViews>
@@ -1994,30 +1994,12 @@
     <t>relab de la jefe de hogar</t>
   </si>
   <si>
-    <t>porcentaje de los que trabajan reciben subsidios</t>
-  </si>
-  <si>
-    <t>porcentaje de los que trabajan reciben bonificaciones y viáticos</t>
-  </si>
-  <si>
     <t>Porcentaje de los que tienen una educación universitaria</t>
   </si>
   <si>
-    <t>Porcentaje de los que trabajan cotizan en salud</t>
-  </si>
-  <si>
-    <t>Porcentaje de los que trabajan cotizan en pensión</t>
-  </si>
-  <si>
     <t>Al menos uno recibe PagosExtraPensArri</t>
   </si>
   <si>
-    <t>porcentaje de los que trabajan reciben Ayuda</t>
-  </si>
-  <si>
-    <t>porcentaje de los que trabajan reciben GanancFinan</t>
-  </si>
-  <si>
     <t>Porcentaje de Edad Trabajo</t>
   </si>
   <si>
@@ -2028,6 +2010,24 @@
   </si>
   <si>
     <t>Porcentaje de Inact cuando Edad Trabajo = 1</t>
+  </si>
+  <si>
+    <t>Porcentaje de los que tienen edad para trabajar cotizan en salud</t>
+  </si>
+  <si>
+    <t>porcentaje de los que tienen edad para trabajar reciben subsidios</t>
+  </si>
+  <si>
+    <t>porcentaje de los que tienen edad para trabajar reciben bonificaciones y viáticos</t>
+  </si>
+  <si>
+    <t>Porcentaje de los que tienen edad para trabajar cotizan en pensión</t>
+  </si>
+  <si>
+    <t>porcentaje de los que tienen edad para trabajar reciben Ayuda</t>
+  </si>
+  <si>
+    <t>porcentaje de los que tienen edad para trabajar reciben GanancFinan</t>
   </si>
 </sst>
 </file>
@@ -7588,7 +7588,7 @@
   <dimension ref="B2:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7610,12 +7610,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
@@ -7625,52 +7625,52 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/stores/Diccionario de variables.xlsx
+++ b/stores/Diccionario de variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/af_diaz27_uniandes_edu_co/Documents/Maestría en Economía Aplicada/Big Data y Machine Learning/Repositorios-GitHub/Taller-3/stores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj.farfan10\Documents\GitHub\Taller-3\stores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="529" documentId="8_{B3BAE68F-C3B3-4D0C-8927-44A6A46D73DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47B5C2E6-B894-4C66-9618-1A4341A1EEF4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A6BE10-F9D6-43C5-AF40-226EA0F268AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="766" firstSheet="1" activeTab="3" xr2:uid="{9746C94E-B379-42DB-9985-B4ADFAF467BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="766" firstSheet="1" activeTab="1" xr2:uid="{9746C94E-B379-42DB-9985-B4ADFAF467BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja11" sheetId="15" state="hidden" r:id="rId1"/>
@@ -46,8 +46,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -55,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="630">
   <si>
     <t>id</t>
   </si>
@@ -2028,6 +2026,33 @@
   </si>
   <si>
     <t>porcentaje de los que tienen edad para trabajar reciben GanancFinan</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Propuesta por</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t># de personas/cuarto para dormir = Nper/p5010</t>
+  </si>
+  <si>
+    <t>Ingreso promedio del hogar= Suma del total de ingresos individuales/# personas</t>
+  </si>
+  <si>
+    <t>Máximo nivel educativo de la unidad de gasto</t>
+  </si>
+  <si>
+    <t># de menores de edad x unidad de gasto</t>
+  </si>
+  <si>
+    <t>Pago promedio recibido por hora trabajada</t>
   </si>
 </sst>
 </file>
@@ -3346,9 +3371,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF217B8-2030-4600-B584-F55ACA93E4FD}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3920,10 +3945,10 @@
   <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7585,92 +7610,192 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECCE2F0-11B8-451F-9201-EF8EBCC58C32}">
-  <dimension ref="B2:B17"/>
+  <dimension ref="B1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="74.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>614</v>
+      </c>
+      <c r="C17" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>625</v>
+      </c>
+      <c r="C18" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>626</v>
+      </c>
+      <c r="C19" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>627</v>
+      </c>
+      <c r="C20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>628</v>
+      </c>
+      <c r="C21" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>629</v>
+      </c>
+      <c r="C22" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/stores/Diccionario de variables.xlsx
+++ b/stores/Diccionario de variables.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj.farfan10\Documents\GitHub\Taller-3\stores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Javier\Desktop\UNIANDES\Big Data\Taller-3\stores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A6BE10-F9D6-43C5-AF40-226EA0F268AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="766" firstSheet="1" activeTab="1" xr2:uid="{9746C94E-B379-42DB-9985-B4ADFAF467BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="766" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja11" sheetId="15" state="hidden" r:id="rId1"/>
@@ -29,12 +28,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hogar!$A$1:$G$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Individuo!$A$1:$I$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Propuesta de variables nuevas'!$A$1:$E$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">RenameHogarTest!$A$1:$C$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">RenameHogarTrain!$A$1:$C$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">RenameIndTest!$A$1:$C$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">RenameIndTrain!$A$1:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="633">
   <si>
     <t>id</t>
   </si>
@@ -2043,22 +2043,31 @@
     <t># de personas/cuarto para dormir = Nper/p5010</t>
   </si>
   <si>
-    <t>Ingreso promedio del hogar= Suma del total de ingresos individuales/# personas</t>
-  </si>
-  <si>
     <t>Máximo nivel educativo de la unidad de gasto</t>
   </si>
   <si>
     <t># de menores de edad x unidad de gasto</t>
   </si>
   <si>
-    <t>Pago promedio recibido por hora trabajada</t>
+    <t>Estado de creación</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Hay código</t>
+  </si>
+  <si>
+    <t>Hay codigo</t>
+  </si>
+  <si>
+    <t>Revisión</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2614,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9C6548-7C80-45A8-A8A4-3C63FC7A7AA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C24"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -2907,7 +2916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3A793F-4067-4F02-AC6E-92BEC6450CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3104,7 +3113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D58C747-4A1F-47B8-BAE9-F1FABE2D4B92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3230,13 +3239,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C7" xr:uid="{4D58C747-4A1F-47B8-BAE9-F1FABE2D4B92}"/>
+  <autoFilter ref="A1:C7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C552F82-AAFD-4FD5-99F6-DF47FD6A8B74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3362,18 +3371,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C7" xr:uid="{4D58C747-4A1F-47B8-BAE9-F1FABE2D4B92}"/>
+  <autoFilter ref="A1:C7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF217B8-2030-4600-B584-F55ACA93E4FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3658,7 +3668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -3685,7 +3695,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -3712,7 +3722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -3785,7 +3795,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -3809,7 +3819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -3833,7 +3843,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -3853,7 +3863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -3934,21 +3944,27 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G24" xr:uid="{EEF217B8-2030-4600-B584-F55ACA93E4FD}"/>
+  <autoFilter ref="A1:G24">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Las dos"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003C75AC-219E-4BA0-819A-3C6A1AE25886}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F62" sqref="F62"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7596,7 +7612,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I137" xr:uid="{003C75AC-219E-4BA0-819A-3C6A1AE25886}">
+  <autoFilter ref="A1:I137">
     <filterColumn colId="3">
       <filters>
         <filter val="Sí"/>
@@ -7609,11 +7625,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECCE2F0-11B8-451F-9201-EF8EBCC58C32}">
-  <dimension ref="B1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7622,39 +7639,75 @@
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>568</v>
+      </c>
       <c r="B1" t="s">
         <v>621</v>
       </c>
       <c r="C1" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>605</v>
       </c>
       <c r="C2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>606</v>
       </c>
       <c r="C3" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>607</v>
       </c>
       <c r="C4" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>609</v>
       </c>
@@ -7662,7 +7715,10 @@
         <v>623</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>615</v>
       </c>
@@ -7670,15 +7726,27 @@
         <v>623</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>608</v>
       </c>
       <c r="C7" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>616</v>
       </c>
@@ -7686,7 +7754,10 @@
         <v>623</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>617</v>
       </c>
@@ -7694,7 +7765,10 @@
         <v>623</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>618</v>
       </c>
@@ -7702,7 +7776,10 @@
         <v>623</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>610</v>
       </c>
@@ -7710,7 +7787,10 @@
         <v>623</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>619</v>
       </c>
@@ -7718,7 +7798,10 @@
         <v>623</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>620</v>
       </c>
@@ -7726,23 +7809,38 @@
         <v>623</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
         <v>611</v>
       </c>
       <c r="C14" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>612</v>
       </c>
       <c r="C15" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>613</v>
       </c>
@@ -7750,7 +7848,10 @@
         <v>623</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
         <v>614</v>
       </c>
@@ -7758,53 +7859,68 @@
         <v>623</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
         <v>625</v>
       </c>
       <c r="C18" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>629</v>
+      </c>
+      <c r="E18" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
       <c r="B19" t="s">
         <v>626</v>
       </c>
       <c r="C19" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
       <c r="B20" t="s">
         <v>627</v>
       </c>
       <c r="C20" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>628</v>
-      </c>
-      <c r="C21" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="D20" t="s">
         <v>629</v>
       </c>
-      <c r="C22" t="s">
-        <v>624</v>
+      <c r="E20" t="s">
+        <v>629</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E20">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD84958D-150B-4576-A773-2484EB5E7AF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8170,7 +8286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBE7710-6004-4F50-A78C-446FFA7D8F40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView topLeftCell="C16" workbookViewId="0">
@@ -8523,7 +8639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C530E332-939C-416F-BC41-7B3FB0A83185}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8953,13 +9069,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C7" xr:uid="{4D58C747-4A1F-47B8-BAE9-F1FABE2D4B92}"/>
+  <autoFilter ref="A1:C7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE11CFE-9C41-48FE-9CF8-53D4E69479EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -9373,13 +9489,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C7" xr:uid="{4D58C747-4A1F-47B8-BAE9-F1FABE2D4B92}"/>
+  <autoFilter ref="A1:C7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AE955D-ABF5-447B-9CD1-C698657EB110}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/stores/Diccionario de variables.xlsx
+++ b/stores/Diccionario de variables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Javier\Desktop\UNIANDES\Big Data\Taller-3\stores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj.farfan10\Documents\GitHub\Taller-3\stores\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E796DECE-DC1E-410C-ABFB-5FC7C7BA43F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="766" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="766" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja11" sheetId="15" state="hidden" r:id="rId1"/>
@@ -34,7 +35,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">RenameIndTest!$A$1:$C$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">RenameIndTrain!$A$1:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2067,7 +2068,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2623,7 +2624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C24"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -2916,7 +2917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3113,7 +3114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3239,13 +3240,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C7"/>
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3371,19 +3372,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C7"/>
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3944,7 +3945,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G24">
+  <autoFilter ref="A1:G24" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Las dos"/>
@@ -3956,7 +3957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I137"/>
   <sheetViews>
@@ -7612,7 +7613,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I137">
+  <autoFilter ref="A1:I137" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="Sí"/>
@@ -7625,12 +7626,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7908,7 +7909,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E20">
+  <autoFilter ref="A1:E20" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <filterColumn colId="4">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7920,7 +7921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8286,7 +8287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView topLeftCell="C16" workbookViewId="0">
@@ -8639,7 +8640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9069,13 +9070,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C7"/>
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -9489,13 +9490,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C7"/>
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/stores/Diccionario de variables.xlsx
+++ b/stores/Diccionario de variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj.farfan10\Documents\GitHub\Taller-3\stores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E796DECE-DC1E-410C-ABFB-5FC7C7BA43F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90760BA-79E2-4DFA-B232-B4122B438D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="766" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7631,7 +7631,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
